--- a/Чек-лист Хоспис.xlsx
+++ b/Чек-лист Хоспис.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="236">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -25,18 +25,456 @@
     <t>Пройден/Непройден</t>
   </si>
   <si>
-    <t xml:space="preserve">Тестирование соответствия требованиям (гайдлайну) </t>
+    <t>Функциональное тестирование</t>
+  </si>
+  <si>
+    <t>Авторизация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Авторизоваться </t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Пройден</t>
+  </si>
+  <si>
+    <t>В поле Логин ввести невалидный логин</t>
+  </si>
+  <si>
+    <t>В поле Пароль ввести невалидный пароль</t>
+  </si>
+  <si>
+    <t>Оставить форму пустой и авторизоваться</t>
+  </si>
+  <si>
+    <t>Переход по кнопкам Универсальной панели навигации</t>
+  </si>
+  <si>
+    <t>Кнопка Back</t>
+  </si>
+  <si>
+    <t>Кнопка Home</t>
+  </si>
+  <si>
+    <t>Кнопка Overview</t>
+  </si>
+  <si>
+    <t>Переход по кнопкам меню на Главной странице</t>
+  </si>
+  <si>
+    <t>Navigation Drawer по тапу разворачивается меню</t>
+  </si>
+  <si>
+    <t>Navigation Drawer переход по тапу по пункту меню Заявки</t>
+  </si>
+  <si>
+    <t>Navigation Drawer переход по тапу по пункту меню Новости</t>
+  </si>
+  <si>
+    <t>Navigation Drawer переход по тапу по пункту меню О приложении</t>
+  </si>
+  <si>
+    <t>AppBar переход по кнопке Цитаты (бабочка)</t>
+  </si>
+  <si>
+    <t>AppBar тап по кнопке для перехода в Личный кабинет</t>
+  </si>
+  <si>
+    <t>AppBar выход по кнопке Выйти</t>
+  </si>
+  <si>
+    <t>Кнопка свернуть/развернуть Новость</t>
+  </si>
+  <si>
+    <t>Кнопка сверенуть/развернуть Заявку</t>
+  </si>
+  <si>
+    <t>Кнопка добавить заявку</t>
+  </si>
+  <si>
+    <t>Кнопка свернуть/развернуть список Новостей</t>
+  </si>
+  <si>
+    <t>Кнопка свернуть/развернуть список Заявок</t>
+  </si>
+  <si>
+    <t>Кнопка Все Новости</t>
+  </si>
+  <si>
+    <t>Кнопка Все Заявки</t>
+  </si>
+  <si>
+    <t>Раздел О Приложении</t>
+  </si>
+  <si>
+    <t>Ссылка на Политику конфиденциальности</t>
+  </si>
+  <si>
+    <t>Непройден</t>
+  </si>
+  <si>
+    <t>Ссылка на Пользовательское соглашение</t>
+  </si>
+  <si>
+    <t>Кнопка в AppBar Назад</t>
+  </si>
+  <si>
+    <t>Раздел Новости</t>
+  </si>
+  <si>
+    <t>Работа кнопок в разделе Новости</t>
+  </si>
+  <si>
+    <t>Кнопка Свернуть/Развернуть новость</t>
+  </si>
+  <si>
+    <t>Кнопка Сортировки</t>
+  </si>
+  <si>
+    <t>Кнопка открытия Фильтра</t>
+  </si>
+  <si>
+    <t>Кнопка Редактировать</t>
+  </si>
+  <si>
+    <t>Вкладка Фильтровать новости</t>
+  </si>
+  <si>
+    <t>Окно Категория - выбор категории из списка</t>
+  </si>
+  <si>
+    <t>Окно Категория - оставить пустым</t>
+  </si>
+  <si>
+    <t>Окно Категория ввести категорию отсутвующую в списке</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Период выбрать будущий (от завтрашнего дня до через год)</t>
+  </si>
+  <si>
+    <t>Календарь - выбор года</t>
+  </si>
+  <si>
+    <t>Календарь - перелистывание назад и вперед</t>
+  </si>
+  <si>
+    <t>Календарь - кнопка Ок</t>
+  </si>
+  <si>
+    <t>Календарь - кнопка Отмена</t>
+  </si>
+  <si>
+    <t>Кнопка Фильтровать</t>
+  </si>
+  <si>
+    <t>Кнопка Отмена</t>
+  </si>
+  <si>
+    <t>Вкладка Редактирования Новостей</t>
+  </si>
+  <si>
+    <t>Кнопка Фильрации</t>
+  </si>
+  <si>
+    <t>Кнопка Создания Новости</t>
+  </si>
+  <si>
+    <t>Вкладка Создание Новости</t>
+  </si>
+  <si>
+    <t>Выбрать Категорию из списка</t>
+  </si>
+  <si>
+    <t>Выбрать Категорию из списка, заполнить все поля и нажать Отмена</t>
+  </si>
+  <si>
+    <t>Ввести в поле Категория новую Категорию</t>
+  </si>
+  <si>
+    <t>Оставить форму Создания новости пустой и нажать создать</t>
+  </si>
+  <si>
+    <t>Выбрать Категорию из списка, заполнить все поля и выключить переключатель Активна</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Выбрать Категорию из списка, заполнить все поля, в поле Дата публикации выбрать прошедшую дату (год назад)</t>
+  </si>
+  <si>
+    <t>Выбрать Категорию из списка, заполнить все поля, в поле Дата публикации выбрать прошедшую дату (вчера)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выбрать Категорию из списка, заполнить все поля, в поле Дата публикации выбрать текущую дату и время час назад </t>
+  </si>
+  <si>
+    <t>Выбрать Категорию из списка, заполнить все поля, в поле Дата публикации выбрать текущую дату и время</t>
+  </si>
+  <si>
+    <t>Выбрать Категорию из списка, заполнить все поля, в поле Дата публикации выбрать текущую дату и время через час</t>
+  </si>
+  <si>
+    <t>Выбрать Категорию из списка, заполнить все поля, в поле Дата публикации выбрать завтра</t>
+  </si>
+  <si>
+    <t>Выбрать Категорию из списка, заполнить все поля, в поле Дата публикации выбрать через месяц</t>
+  </si>
+  <si>
+    <t>Удалить Новость</t>
+  </si>
+  <si>
+    <t>Кнопка Редактировать Новость</t>
+  </si>
+  <si>
+    <t>Страница Редактирование Новости переключатель Активна/Не активна</t>
+  </si>
+  <si>
+    <t>Открытие новости для редактирования и закрытие формы без внесенных измненений</t>
+  </si>
+  <si>
+    <t>Редактирование категории Новости</t>
+  </si>
+  <si>
+    <t>Редактирование заголовка Новости</t>
+  </si>
+  <si>
+    <t>Редактирвоание даты публикации Новости</t>
+  </si>
+  <si>
+    <t>Редактирование времени публикации Новости</t>
+  </si>
+  <si>
+    <t>Редактирование описания Новости</t>
+  </si>
+  <si>
+    <t>Раздел Заявки</t>
+  </si>
+  <si>
+    <t>Работа кнопок в разделе Заявки</t>
+  </si>
+  <si>
+    <t>Кнопка Фильтр</t>
+  </si>
+  <si>
+    <t>Кнопка Добавить</t>
+  </si>
+  <si>
+    <t>Кнопка просмотра Заявки</t>
+  </si>
+  <si>
+    <t>Фильтрация Заявок</t>
+  </si>
+  <si>
+    <t>По статусу Открыта</t>
+  </si>
+  <si>
+    <t>По статусу В работе</t>
+  </si>
+  <si>
+    <t>По статусу Выполнена</t>
+  </si>
+  <si>
+    <t>По статусу Отмененные</t>
+  </si>
+  <si>
+    <t>По статусам Открыта + В работе</t>
+  </si>
+  <si>
+    <t>По статусам Открыта + Выполнена</t>
+  </si>
+  <si>
+    <t>По статусам Открыта + Отмененные</t>
+  </si>
+  <si>
+    <t>По статусам В работе + Выполнена</t>
+  </si>
+  <si>
+    <t>По статусам В работе + Отмененные</t>
+  </si>
+  <si>
+    <t>По статусам Выполнена + Отмененные</t>
+  </si>
+  <si>
+    <t>По статусам Открыта + В работе + Выполнена</t>
+  </si>
+  <si>
+    <t>По статусам Открыта + Выполнена + Отмененные</t>
+  </si>
+  <si>
+    <t>По статусам В работе + Выполнена + Отмененные</t>
+  </si>
+  <si>
+    <t>По всем статусам сразу</t>
+  </si>
+  <si>
+    <t>Без статусов</t>
+  </si>
+  <si>
+    <t>Кнопка Отмена в окне Фильтация</t>
+  </si>
+  <si>
+    <t>Вкладка Создания Заявки</t>
+  </si>
+  <si>
+    <t>Сохранить заполненную Заявку</t>
+  </si>
+  <si>
+    <t>Создать Заявку. В поле Тема ввести 49 знаков</t>
+  </si>
+  <si>
+    <t>Создать Заявку. В поле Тема ввести 50 знаков</t>
+  </si>
+  <si>
+    <t>Создать Заявку. В поле Тема ввести 51 знак</t>
+  </si>
+  <si>
+    <t>Сохранить пустую Заявку</t>
+  </si>
+  <si>
+    <t>Заполнить форму создания Заявки и нажать Отмена</t>
+  </si>
+  <si>
+    <t>Создание Заявки без исполнителя</t>
+  </si>
+  <si>
+    <t>Создать Заявку с исполнителем не из списка</t>
+  </si>
+  <si>
+    <t>Создать Заявку с заголовком начинающимся с пробела</t>
+  </si>
+  <si>
+    <t>Заполнить форму заявки и перевернуть экран</t>
+  </si>
+  <si>
+    <t>Заполнить форму заявки. Выбрать текущую дату и время</t>
+  </si>
+  <si>
+    <t>Заполнить форму заявки. Выбрать текущую дату и прошедшее время (час назад)</t>
+  </si>
+  <si>
+    <t>Заполнить форму заявки. Выбрать текущую дату и время через час</t>
+  </si>
+  <si>
+    <t>Заполнить форму заявки. Выбрать текущую дату и время минутой позже</t>
+  </si>
+  <si>
+    <t>Заполнить форму заявки. Выбрать текущую дату и время минутой раньше</t>
+  </si>
+  <si>
+    <t>Заполнить форму заявки. Выбрать вчерашнюю дату</t>
+  </si>
+  <si>
+    <t>Заполнить форму заявки. Выбрать дату год назад</t>
+  </si>
+  <si>
+    <t>Заполнить форму заявки. Выбрать дату через год</t>
+  </si>
+  <si>
+    <t>Заполнить форму заявки. Выбрать дату завтра</t>
+  </si>
+  <si>
+    <t>Заполнить форму заявки. В поле время ввести нереальное время</t>
+  </si>
+  <si>
+    <t>Режим Просмотра Заявки</t>
+  </si>
+  <si>
+    <t>Добавить комментарий и Сохранить</t>
+  </si>
+  <si>
+    <t>Добавить пустой комментарий</t>
+  </si>
+  <si>
+    <t>Добавить комментарий и нажать Отмена</t>
+  </si>
+  <si>
+    <t>Добавить комментарий c пробелом в начале</t>
+  </si>
+  <si>
+    <t>Кнопка редактирования Комментария</t>
+  </si>
+  <si>
+    <t>Кнопка Изменения статуса</t>
+  </si>
+  <si>
+    <t>Изменить статус на В работе</t>
+  </si>
+  <si>
+    <t>Изменить статус на Исполнить. В поле Комментарий ввести комментарий и ОК</t>
+  </si>
+  <si>
+    <t>Изменить статус на Исполнить.В поле Комментарий ввести комментарий и нажать Отмена</t>
+  </si>
+  <si>
+    <t>Изменить статус на Исполнить. Поле Комментарий оставить пустым. Нажать ОК</t>
+  </si>
+  <si>
+    <t>Пройдена</t>
+  </si>
+  <si>
+    <t>Переход по кнопке Назад внизу Заявки</t>
+  </si>
+  <si>
+    <t>Изменить статус на Отменить</t>
+  </si>
+  <si>
+    <t>Изменить статус на Сбросить. В поле Комментарий ввести комментарий и ОК</t>
+  </si>
+  <si>
+    <t>Изменить статус на Сбросить. В поле Комментарий ввести комментарий и нажать Отмена</t>
+  </si>
+  <si>
+    <t>Изменить статус на Сбросить. Поле Комментарий оставить пустым. Нажать ОК</t>
+  </si>
+  <si>
+    <t>Раздел Тематические цитаты</t>
+  </si>
+  <si>
+    <t>Скролинг страницы</t>
+  </si>
+  <si>
+    <t>Кнопка развернуть/свернуть цитату</t>
+  </si>
+  <si>
+    <t>Выход из Личного кабинета</t>
+  </si>
+  <si>
+    <t>Тестирование API</t>
+  </si>
+  <si>
+    <t>Запрос уходит на нужный URL</t>
+  </si>
+  <si>
+    <t>Методы запроса</t>
+  </si>
+  <si>
+    <t>Верный формат данных</t>
+  </si>
+  <si>
+    <t>Время получения данных</t>
+  </si>
+  <si>
+    <t>Дублирование</t>
+  </si>
+  <si>
+    <t>Как данные отображаются на клиенте</t>
+  </si>
+  <si>
+    <t>Нефункциональное тестирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестирование пользовательского интерфейса -Тестирование соответствия требованиям (гайдлайну) </t>
   </si>
   <si>
     <t>AppBar структура</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Пройден</t>
-  </si>
-  <si>
     <t>Отображение иконок - графичны</t>
   </si>
   <si>
@@ -64,9 +502,6 @@
     <t>Диалоговые окна соответствуют макету гайдлайна</t>
   </si>
   <si>
-    <t>Непройден</t>
-  </si>
-  <si>
     <t>Остутствует заголовок</t>
   </si>
   <si>
@@ -97,420 +532,6 @@
     <t>1.отсутствует AM/PM; 2.на часах для ввода времени некорректное расстояние между элементами</t>
   </si>
   <si>
-    <t>Функциональное тестирование</t>
-  </si>
-  <si>
-    <t>Авторизация</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Авторизоваться </t>
-  </si>
-  <si>
-    <t>В поле Логин ввести невалидный логин</t>
-  </si>
-  <si>
-    <t>В поле Пароль ввести невалидный пароль</t>
-  </si>
-  <si>
-    <t>Оставить форму пустой и авторизоваться</t>
-  </si>
-  <si>
-    <t>Переход по кнопкам Универсальной панели навигации</t>
-  </si>
-  <si>
-    <t>Кнопка Back</t>
-  </si>
-  <si>
-    <t>Кнопка Home</t>
-  </si>
-  <si>
-    <t>Кнопка Overview</t>
-  </si>
-  <si>
-    <t>Переход по кнопкам меню на Главной странице</t>
-  </si>
-  <si>
-    <t>Navigation Drawer по тапу разворачивается меню</t>
-  </si>
-  <si>
-    <t>Navigation Drawer переход по тапу по пункту меню Заявки</t>
-  </si>
-  <si>
-    <t>Navigation Drawer переход по тапу по пункту меню Новости</t>
-  </si>
-  <si>
-    <t>Navigation Drawer переход по тапу по пункту меню О приложении</t>
-  </si>
-  <si>
-    <t>AppBar переход по кнопке Цитаты (бабочка)</t>
-  </si>
-  <si>
-    <t>AppBar тап по кнопке для перехода в Личный кабинет</t>
-  </si>
-  <si>
-    <t>AppBar выход по кнопке Выйти</t>
-  </si>
-  <si>
-    <t>Кнопка свернуть/развернуть Новость</t>
-  </si>
-  <si>
-    <t>Кнопка сверенуть/развернуть Заявку</t>
-  </si>
-  <si>
-    <t>Кнопка добавить заявку</t>
-  </si>
-  <si>
-    <t>Кнопка свернуть/развернуть список Новостей</t>
-  </si>
-  <si>
-    <t>Кнопка свернуть/развернуть список Заявок</t>
-  </si>
-  <si>
-    <t>Кнопка Все Новости</t>
-  </si>
-  <si>
-    <t>Кнопка Все Заявки</t>
-  </si>
-  <si>
-    <t>Раздел О Приложении</t>
-  </si>
-  <si>
-    <t>Ссылка на Политику конфиденциальности</t>
-  </si>
-  <si>
-    <t>Ссылка на Пользовательское соглашение</t>
-  </si>
-  <si>
-    <t>Кнопка в AppBar Назад</t>
-  </si>
-  <si>
-    <t>Раздел Новости</t>
-  </si>
-  <si>
-    <t>Работа кнопок в разделе Новости</t>
-  </si>
-  <si>
-    <t>Кнопка Свернуть/Развернуть новость</t>
-  </si>
-  <si>
-    <t>Кнопка Сортировки</t>
-  </si>
-  <si>
-    <t>Кнопка открытия Фильтра</t>
-  </si>
-  <si>
-    <t>Кнопка Редактировать</t>
-  </si>
-  <si>
-    <t>Вкладка Фильтровать новости</t>
-  </si>
-  <si>
-    <t>Окно Категория - выбор категории из списка</t>
-  </si>
-  <si>
-    <t>Окно Категория - выбрать из списка и перевернуть экран</t>
-  </si>
-  <si>
-    <t>Окно Категория - оставить пустым</t>
-  </si>
-  <si>
-    <t>Окно Категория ввести категорию отсутвующую в списке</t>
-  </si>
-  <si>
-    <t>Период выбрать будущий (от завтрашнего дня до через год)</t>
-  </si>
-  <si>
-    <t>Календарь - выбор года</t>
-  </si>
-  <si>
-    <t>Календарь - перелистывание назад и вперед</t>
-  </si>
-  <si>
-    <t>Календарь - кнопка Ок</t>
-  </si>
-  <si>
-    <t>Календарь - кнопка Отмена</t>
-  </si>
-  <si>
-    <t>Кнопка Фильтровать</t>
-  </si>
-  <si>
-    <t>Кнопка Отмена</t>
-  </si>
-  <si>
-    <t>Вкладка Редактирования Новостей</t>
-  </si>
-  <si>
-    <t>Кнопка Фильрации</t>
-  </si>
-  <si>
-    <t>Кнопка Создания Новости</t>
-  </si>
-  <si>
-    <t>Вкладка Создание Новости</t>
-  </si>
-  <si>
-    <t>Выбрать Категорию из списка</t>
-  </si>
-  <si>
-    <t>Выбрать Категорию из списка, заполнить все поля и нажать Отмена</t>
-  </si>
-  <si>
-    <t>Ввести в поле Категория новую Категорию</t>
-  </si>
-  <si>
-    <t>Оставить форму Создания новости пустой и нажать создать</t>
-  </si>
-  <si>
-    <t>Выбрать Категорию из списка, заполнить все поля и выключить переключатель Активна</t>
-  </si>
-  <si>
-    <t>Выбрать Категорию из списка, заполнить все поля, в поле Дата публикации выбрать прошедшую дату (год назад)</t>
-  </si>
-  <si>
-    <t>Выбрать Категорию из списка, заполнить все поля, в поле Дата публикации выбрать прошедшую дату (вчера)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выбрать Категорию из списка, заполнить все поля, в поле Дата публикации выбрать текущую дату и время час назад </t>
-  </si>
-  <si>
-    <t>Выбрать Категорию из списка, заполнить все поля, в поле Дата публикации выбрать текущую дату и время</t>
-  </si>
-  <si>
-    <t>Выбрать Категорию из списка, заполнить все поля, в поле Дата публикации выбрать текущую дату и время через час</t>
-  </si>
-  <si>
-    <t>Выбрать Категорию из списка, заполнить все поля, в поле Дата публикации выбрать завтра</t>
-  </si>
-  <si>
-    <t>Выбрать Категорию из списка, заполнить все поля, в поле Дата публикации выбрать через месяц</t>
-  </si>
-  <si>
-    <t>Удалить Новость</t>
-  </si>
-  <si>
-    <t>Кнопка Редактировать Новость</t>
-  </si>
-  <si>
-    <t>Страница Редактирование Новости переключатель Активна/Не активна</t>
-  </si>
-  <si>
-    <t>Открытие новости для редактирования и закрытие формы без внесенных измненений</t>
-  </si>
-  <si>
-    <t>Редактирование категории Новости</t>
-  </si>
-  <si>
-    <t>Редактирование заголовка Новости</t>
-  </si>
-  <si>
-    <t>Редактирвоание даты публикации Новости</t>
-  </si>
-  <si>
-    <t>Редактирование времени публикации Новости</t>
-  </si>
-  <si>
-    <t>Редактирование описания Новости</t>
-  </si>
-  <si>
-    <t>Раздел Заявки</t>
-  </si>
-  <si>
-    <t>Работа кнопок в разделе Заявки</t>
-  </si>
-  <si>
-    <t>Кнопка Фильтр</t>
-  </si>
-  <si>
-    <t>Кнопка Добавить</t>
-  </si>
-  <si>
-    <t>Кнопка просмотра Заявки</t>
-  </si>
-  <si>
-    <t>Фильтрация Заявок</t>
-  </si>
-  <si>
-    <t>По статусу Открыта</t>
-  </si>
-  <si>
-    <t>По статусу В работе</t>
-  </si>
-  <si>
-    <t>По статусу Выполнена</t>
-  </si>
-  <si>
-    <t>По статусу Отмененные</t>
-  </si>
-  <si>
-    <t>По статусам Открыта + В работе</t>
-  </si>
-  <si>
-    <t>По статусам Открыта + Выполнена</t>
-  </si>
-  <si>
-    <t>По статусам Открыта + Отмененные</t>
-  </si>
-  <si>
-    <t>По статусам В работе + Выполнена</t>
-  </si>
-  <si>
-    <t>По статусам В работе + Отмененные</t>
-  </si>
-  <si>
-    <t>По статусам Выполнена + Отмененные</t>
-  </si>
-  <si>
-    <t>По статусам Открыта + В работе + Выполнена</t>
-  </si>
-  <si>
-    <t>По статусам Открыта + Выполнена + Отмененные</t>
-  </si>
-  <si>
-    <t>По статусам В работе + Выполнена + Отмененные</t>
-  </si>
-  <si>
-    <t>По всем статусам сразу</t>
-  </si>
-  <si>
-    <t>Без статусов</t>
-  </si>
-  <si>
-    <t>Кнопка Отмена в окне Фильтация</t>
-  </si>
-  <si>
-    <t>Вкладка Создания Заявки</t>
-  </si>
-  <si>
-    <t>Сохранить заполненную Заявку</t>
-  </si>
-  <si>
-    <t>Создать Заявку. В поле Тема ввести 49 знаков</t>
-  </si>
-  <si>
-    <t>Создать Заявку. В поле Тема ввести 50 знаков</t>
-  </si>
-  <si>
-    <t>Создать Заявку. В поле Тема ввести 51 знак</t>
-  </si>
-  <si>
-    <t>Сохранить пустую Заявку</t>
-  </si>
-  <si>
-    <t>Заполнить форму создания Заявки и нажать Отмена</t>
-  </si>
-  <si>
-    <t>Создание Заявки без исполнителя</t>
-  </si>
-  <si>
-    <t>Создать Заявку с исполнителем не из списка</t>
-  </si>
-  <si>
-    <t>Создать Заявку с заголовком начинающимся с пробела</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Заполнить форму заявки и перевернуть экран</t>
-  </si>
-  <si>
-    <t>Заполнить форму заявки. Выбрать текущую дату и время</t>
-  </si>
-  <si>
-    <t>Заполнить форму заявки. Выбрать текущую дату и прошедшее время (час назад)</t>
-  </si>
-  <si>
-    <t>Заполнить форму заявки. Выбрать текущую дату и время через час</t>
-  </si>
-  <si>
-    <t>Заполнить форму заявки. Выбрать текущую дату и время минутой позже</t>
-  </si>
-  <si>
-    <t>Заполнить форму заявки. Выбрать текущую дату и время минутой раньше</t>
-  </si>
-  <si>
-    <t>Заполнить форму заявки. Выбрать вчерашнюю дату</t>
-  </si>
-  <si>
-    <t>Заполнить форму заявки. Выбрать дату год назад</t>
-  </si>
-  <si>
-    <t>Заполнить форму заявки. Выбрать дату через год</t>
-  </si>
-  <si>
-    <t>Заполнить форму заявки. Выбрать дату завтра</t>
-  </si>
-  <si>
-    <t>Заполнить форму заявки. В поле время ввести нереальное время</t>
-  </si>
-  <si>
-    <t>Режим Просмотра Заявки</t>
-  </si>
-  <si>
-    <t>Добавить комментарий и Сохранить</t>
-  </si>
-  <si>
-    <t>Добавить пустой комментарий</t>
-  </si>
-  <si>
-    <t>Добавить комментарий и нажать Отмена</t>
-  </si>
-  <si>
-    <t>Добавить комментарий c пробелом в начале</t>
-  </si>
-  <si>
-    <t>Кнопка редактирования Комментария</t>
-  </si>
-  <si>
-    <t>Кнопка Изменения статуса</t>
-  </si>
-  <si>
-    <t>Изменить статус на В работе</t>
-  </si>
-  <si>
-    <t>Изменить статус на Исполнить. В поле Комментарий ввести комментарий и ОК</t>
-  </si>
-  <si>
-    <t>Изменить статус на Исполнить.В поле Комментарий ввести комментарий и нажать Отмена</t>
-  </si>
-  <si>
-    <t>Изменить статус на Исполнить. Поле Комментарий оставить пустым. Нажать ОК</t>
-  </si>
-  <si>
-    <t>Пройдена</t>
-  </si>
-  <si>
-    <t>Переход по кнопке Назад внизу Заявки</t>
-  </si>
-  <si>
-    <t>Изменить статус на Отменить</t>
-  </si>
-  <si>
-    <t>Изменить статус на Сбросить. В поле Комментарий ввести комментарий и ОК</t>
-  </si>
-  <si>
-    <t>Изменить статус на Сбросить. В поле Комментарий ввести комментарий и нажать Отмена</t>
-  </si>
-  <si>
-    <t>Изменить статус на Сбросить. Поле Комментарий оставить пустым. Нажать ОК</t>
-  </si>
-  <si>
-    <t>Раздел Тематические цитаты</t>
-  </si>
-  <si>
-    <t>Скролинг страницы</t>
-  </si>
-  <si>
-    <t>Кнопка развернуть/свернуть цитату</t>
-  </si>
-  <si>
-    <t>Выход из Личного кабинета</t>
-  </si>
-  <si>
-    <t>Тестирование Безопасности</t>
-  </si>
-  <si>
     <t>Тестирование безопасности раздел Заявки вкладка Создание Заявки</t>
   </si>
   <si>
@@ -562,27 +583,6 @@
     <t>Выбрать Категорию из списка, в поле Описание ввести ";&amp;&amp;"</t>
   </si>
   <si>
-    <t>Тестирование API</t>
-  </si>
-  <si>
-    <t>Запрос уходит на нужный URL</t>
-  </si>
-  <si>
-    <t>Методы запроса</t>
-  </si>
-  <si>
-    <t>Верный формат данных</t>
-  </si>
-  <si>
-    <t>Время получения данных</t>
-  </si>
-  <si>
-    <t>Дублирование</t>
-  </si>
-  <si>
-    <t>Как данные отображаются на клиенте</t>
-  </si>
-  <si>
     <t>Тестирование прерываний</t>
   </si>
   <si>
@@ -661,9 +661,6 @@
     <t>Удалить приложение и установить заново</t>
   </si>
   <si>
-    <t>Локализация</t>
-  </si>
-  <si>
     <t>Названия разделов на  английском языке</t>
   </si>
   <si>
@@ -688,28 +685,28 @@
     <t>Всплывающие сообщения</t>
   </si>
   <si>
+    <t>Темная тема</t>
+  </si>
+  <si>
+    <t>Отображение вводимого логина на странице авторизации</t>
+  </si>
+  <si>
+    <t>Отображение Главной страницы</t>
+  </si>
+  <si>
+    <t>Отображение раздела Заявки</t>
+  </si>
+  <si>
+    <t>Отображение раздела Новости</t>
+  </si>
+  <si>
+    <t>Отображение раздела Цитаты</t>
+  </si>
+  <si>
+    <t>Отображение раздела О приложении</t>
+  </si>
+  <si>
     <t>Удобство пользования</t>
-  </si>
-  <si>
-    <t>Темная тема</t>
-  </si>
-  <si>
-    <t>Отображение вводимого логина на странице авторизации</t>
-  </si>
-  <si>
-    <t>Отображение Главной страницы</t>
-  </si>
-  <si>
-    <t>Отображение раздела Заявки</t>
-  </si>
-  <si>
-    <t>Отображение раздела Новости</t>
-  </si>
-  <si>
-    <t>Отображение раздела Цитаты</t>
-  </si>
-  <si>
-    <t>Отображение раздела О приложении</t>
   </si>
   <si>
     <t>Раздел Заявки пролистать вниз, открыть заявку, вернуться назад к списку заявок, октрыть следующую</t>
@@ -728,7 +725,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -745,25 +742,9 @@
       <sz val="14.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font/>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <b/>
       <sz val="12.0"/>
@@ -780,6 +761,15 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -886,6 +876,9 @@
       </right>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -894,9 +887,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -908,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -928,74 +918,32 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1008,13 +956,52 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1259,2988 +1246,2980 @@
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="14"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="14"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="14"/>
-      <c r="B8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="14"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="14"/>
-      <c r="B11" s="19" t="s">
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="21" t="s">
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="11"/>
+      <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="14"/>
-      <c r="B12" s="22" t="s">
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="11"/>
+      <c r="B14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="14"/>
-      <c r="B13" s="22" t="s">
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="14"/>
-      <c r="B14" s="22" t="s">
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="11"/>
+      <c r="B16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="22" t="s">
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="11"/>
+      <c r="B17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="14"/>
-      <c r="B16" s="22" t="s">
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="23"/>
-      <c r="B17" s="22" t="s">
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="11"/>
+      <c r="B19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="24" t="s">
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="11"/>
+      <c r="B20" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="25" t="s">
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="11"/>
+      <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="26" t="s">
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="11"/>
+      <c r="B22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="12"/>
+      <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="14"/>
-      <c r="B20" s="22" t="s">
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="14"/>
-      <c r="B21" s="22" t="s">
+      <c r="B24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="23"/>
-      <c r="B22" s="22" t="s">
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="26" t="s">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="C25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="12"/>
+      <c r="B26" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="14"/>
-      <c r="B24" s="22" t="s">
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="22" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="26" t="s">
+      <c r="B28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="C28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="11"/>
+      <c r="B29" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="14"/>
-      <c r="B27" s="27" t="s">
+      <c r="C29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="11"/>
+      <c r="B30" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="14"/>
-      <c r="B28" s="22" t="s">
+      <c r="C30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="11"/>
+      <c r="B31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="14"/>
-      <c r="B29" s="27" t="s">
+      <c r="C31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="14"/>
-      <c r="B30" s="27" t="s">
+      <c r="B32" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="14"/>
-      <c r="B31" s="27" t="s">
+      <c r="C32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="11"/>
+      <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="14"/>
-      <c r="B32" s="27" t="s">
+      <c r="C33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="11"/>
+      <c r="B34" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="14"/>
-      <c r="B33" s="27" t="s">
+      <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="14"/>
-      <c r="B34" s="27" t="s">
+      <c r="D34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="11"/>
+      <c r="B35" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="14"/>
-      <c r="B35" s="27" t="s">
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="11"/>
+      <c r="B36" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="14"/>
-      <c r="B36" s="22" t="s">
+      <c r="C36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="11"/>
+      <c r="B37" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="14"/>
-      <c r="B37" s="22" t="s">
+      <c r="C37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="11"/>
+      <c r="B38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="14"/>
-      <c r="B38" s="22" t="s">
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="11"/>
+      <c r="B39" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="23"/>
-      <c r="B39" s="22" t="s">
+      <c r="C39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="11"/>
+      <c r="B40" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="26" t="s">
+      <c r="C40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="12"/>
+      <c r="B41" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="C41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="14"/>
-      <c r="B41" s="22" t="s">
+      <c r="B42" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="23"/>
-      <c r="B42" s="28" t="s">
+      <c r="C42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="11"/>
+      <c r="B43" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="12"/>
+      <c r="B44" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="29" t="s">
+      <c r="C44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="31" t="s">
+      <c r="B45" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="C45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="11"/>
+      <c r="B46" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="14"/>
-      <c r="B45" s="22" t="s">
+      <c r="C46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="11"/>
+      <c r="B47" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="14"/>
-      <c r="B46" s="22" t="s">
+      <c r="C47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="11"/>
+      <c r="B48" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="14"/>
-      <c r="B47" s="22" t="s">
+      <c r="C48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="11"/>
+      <c r="B49" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="31" t="s">
+      <c r="C49" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="D49" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="11"/>
+      <c r="B50" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="14"/>
-      <c r="B49" s="22" t="s">
+      <c r="C50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="11"/>
+      <c r="B51" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="14"/>
-      <c r="B50" s="22" t="s">
+      <c r="C51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="11"/>
+      <c r="B52" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="14"/>
-      <c r="B51" s="22" t="s">
+      <c r="C52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="11"/>
+      <c r="B53" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="14"/>
-      <c r="B52" s="22" t="s">
+      <c r="C53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="11"/>
+      <c r="B54" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="14"/>
-      <c r="B53" s="22" t="s">
+      <c r="C54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="11"/>
+      <c r="B55" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="14"/>
-      <c r="B54" s="22" t="s">
+      <c r="C55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="11"/>
+      <c r="B56" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="14"/>
-      <c r="B55" s="22" t="s">
+      <c r="C56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="11"/>
+      <c r="B57" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="14"/>
-      <c r="B56" s="22" t="s">
+      <c r="C57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="11"/>
+      <c r="B58" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="14"/>
-      <c r="B57" s="22" t="s">
+      <c r="C58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="11"/>
+      <c r="B59" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="23"/>
-      <c r="B58" s="22" t="s">
+      <c r="C59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="11"/>
+      <c r="B60" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="32" t="s">
+      <c r="C60" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="11"/>
+      <c r="B61" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="C61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="11"/>
+      <c r="B62" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="14"/>
-      <c r="B60" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="23"/>
-      <c r="B61" s="22" t="s">
+      <c r="C62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="11"/>
+      <c r="B63" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="32" t="s">
+      <c r="C63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="11"/>
+      <c r="B64" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="C64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="11"/>
+      <c r="B65" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="14"/>
-      <c r="B63" s="22" t="s">
+      <c r="C65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="14"/>
-      <c r="B64" s="22" t="s">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="14"/>
-      <c r="B65" s="22" t="s">
+      <c r="B67" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="5"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="14"/>
-      <c r="B66" s="33" t="s">
+      <c r="C67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="11"/>
+      <c r="B68" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="35"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="36"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="36"/>
-      <c r="W66" s="36"/>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="36"/>
-      <c r="Z66" s="36"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="14"/>
-      <c r="B67" s="22" t="s">
+      <c r="C68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="12"/>
+      <c r="B69" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="14"/>
-      <c r="B68" s="22" t="s">
+      <c r="C69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="14"/>
-      <c r="B69" s="22" t="s">
+      <c r="B70" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="14"/>
-      <c r="B70" s="22" t="s">
+      <c r="C70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="11"/>
+      <c r="B71" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="14"/>
-      <c r="B71" s="22" t="s">
+      <c r="C71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="11"/>
+      <c r="B72" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="14"/>
-      <c r="B72" s="22" t="s">
+      <c r="C72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="11"/>
+      <c r="B73" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="14"/>
-      <c r="B73" s="22" t="s">
+      <c r="C73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="11"/>
+      <c r="B74" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="14"/>
-      <c r="B74" s="22" t="s">
+      <c r="C74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="11"/>
+      <c r="B75" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="14"/>
-      <c r="B75" s="22" t="s">
+      <c r="C75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="11"/>
+      <c r="B76" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="14"/>
-      <c r="B76" s="22" t="s">
+      <c r="C76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="11"/>
+      <c r="B77" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="5"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="14"/>
-      <c r="B77" s="22" t="s">
+      <c r="C77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="11"/>
+      <c r="B78" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="5"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="14"/>
-      <c r="B78" s="22" t="s">
+      <c r="C78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="11"/>
+      <c r="B79" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="14"/>
-      <c r="B79" s="22" t="s">
+      <c r="C79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="11"/>
+      <c r="B80" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="5"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="14"/>
-      <c r="B80" s="22" t="s">
+      <c r="C80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="11"/>
+      <c r="B81" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="14"/>
-      <c r="B81" s="22" t="s">
+      <c r="C81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="11"/>
+      <c r="B82" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="5"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="14"/>
-      <c r="B82" s="22" t="s">
+      <c r="C82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="11"/>
+      <c r="B83" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="5"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="29" t="s">
+      <c r="C83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="11"/>
+      <c r="B84" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="5"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="31" t="s">
+      <c r="C84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="11"/>
+      <c r="B85" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="C85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="5"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="14"/>
-      <c r="B85" s="22" t="s">
+      <c r="B86" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="23"/>
-      <c r="B86" s="22" t="s">
+      <c r="C86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="11"/>
+      <c r="B87" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="5"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="31" t="s">
+      <c r="C87" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="11"/>
+      <c r="B88" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="C88" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="11"/>
+      <c r="B89" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="5"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="14"/>
-      <c r="B88" s="22" t="s">
+      <c r="C89" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="11"/>
+      <c r="B90" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="5"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="14"/>
-      <c r="B89" s="22" t="s">
+      <c r="C90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="11"/>
+      <c r="B91" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="5"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="14"/>
-      <c r="B90" s="22" t="s">
+      <c r="C91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="11"/>
+      <c r="B92" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="5"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="14"/>
-      <c r="B91" s="22" t="s">
+      <c r="C92" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="11"/>
+      <c r="B93" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="5"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="14"/>
-      <c r="B92" s="22" t="s">
+      <c r="C93" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="5"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="11"/>
+      <c r="B94" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="5"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="14"/>
-      <c r="B93" s="22" t="s">
+      <c r="C94" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="11"/>
+      <c r="B95" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="5"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="14"/>
-      <c r="B94" s="22" t="s">
+      <c r="C95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="11"/>
+      <c r="B96" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="5"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="14"/>
-      <c r="B95" s="22" t="s">
+      <c r="C96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="11"/>
+      <c r="B97" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="5"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="14"/>
-      <c r="B96" s="22" t="s">
+      <c r="C97" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="21"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="22"/>
+      <c r="P97" s="22"/>
+      <c r="Q97" s="22"/>
+      <c r="R97" s="22"/>
+      <c r="S97" s="22"/>
+      <c r="T97" s="22"/>
+      <c r="U97" s="22"/>
+      <c r="V97" s="22"/>
+      <c r="W97" s="22"/>
+      <c r="X97" s="22"/>
+      <c r="Y97" s="22"/>
+      <c r="Z97" s="22"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="11"/>
+      <c r="B98" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="5"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="14"/>
-      <c r="B97" s="22" t="s">
+      <c r="C98" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="21"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="22"/>
+      <c r="Q98" s="22"/>
+      <c r="R98" s="22"/>
+      <c r="S98" s="22"/>
+      <c r="T98" s="22"/>
+      <c r="U98" s="22"/>
+      <c r="V98" s="22"/>
+      <c r="W98" s="22"/>
+      <c r="X98" s="22"/>
+      <c r="Y98" s="22"/>
+      <c r="Z98" s="22"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="11"/>
+      <c r="B99" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="5"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="14"/>
-      <c r="B98" s="22" t="s">
+      <c r="C99" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="21"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="22"/>
+      <c r="S99" s="22"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="22"/>
+      <c r="V99" s="22"/>
+      <c r="W99" s="22"/>
+      <c r="X99" s="22"/>
+      <c r="Y99" s="22"/>
+      <c r="Z99" s="22"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="11"/>
+      <c r="B100" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="5"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="14"/>
-      <c r="B99" s="22" t="s">
+      <c r="C100" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="21"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="22"/>
+      <c r="Q100" s="22"/>
+      <c r="R100" s="22"/>
+      <c r="S100" s="22"/>
+      <c r="T100" s="22"/>
+      <c r="U100" s="22"/>
+      <c r="V100" s="22"/>
+      <c r="W100" s="22"/>
+      <c r="X100" s="22"/>
+      <c r="Y100" s="22"/>
+      <c r="Z100" s="22"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="11"/>
+      <c r="B101" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="5"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="14"/>
-      <c r="B100" s="22" t="s">
+      <c r="C101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="5"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="11"/>
+      <c r="B102" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="5"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="14"/>
-      <c r="B101" s="22" t="s">
+      <c r="C102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="5"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="11"/>
+      <c r="B103" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="5"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="14"/>
-      <c r="B102" s="22" t="s">
+      <c r="C103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="5"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="11"/>
+      <c r="B104" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="5"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="31" t="s">
+      <c r="C104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="12"/>
+      <c r="B105" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="C105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="5"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="5"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="14"/>
-      <c r="B104" s="37" t="s">
+      <c r="B106" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="5"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="14"/>
-      <c r="B105" s="22" t="s">
+      <c r="C106" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="5"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="11"/>
+      <c r="B107" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="5"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="14"/>
-      <c r="B106" s="22" t="s">
+      <c r="C107" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="5"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="11"/>
+      <c r="B108" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="5"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="14"/>
-      <c r="B107" s="22" t="s">
+      <c r="C108" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="11"/>
+      <c r="B109" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="5"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="14"/>
-      <c r="B108" s="22" t="s">
+      <c r="C109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="5"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="11"/>
+      <c r="B110" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="5"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="14"/>
-      <c r="B109" s="22" t="s">
+      <c r="C110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="11"/>
+      <c r="B111" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="5"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="14"/>
-      <c r="B110" s="22" t="s">
+      <c r="C111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="11"/>
+      <c r="B112" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="5"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="14"/>
-      <c r="B111" s="22" t="s">
+      <c r="C112" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="11"/>
+      <c r="B113" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="5"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="11"/>
+      <c r="B114" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" s="5"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="14"/>
-      <c r="B112" s="22" t="s">
+      <c r="C114" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="11"/>
+      <c r="B115" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="5"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="14"/>
-      <c r="B113" s="22" t="s">
+      <c r="C115" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" s="5"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="14"/>
-      <c r="B114" s="33" t="s">
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="11"/>
+      <c r="B116" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C114" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="35"/>
-      <c r="F114" s="36"/>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="36"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="36"/>
-      <c r="L114" s="36"/>
-      <c r="M114" s="36"/>
-      <c r="N114" s="36"/>
-      <c r="O114" s="36"/>
-      <c r="P114" s="36"/>
-      <c r="Q114" s="36"/>
-      <c r="R114" s="36"/>
-      <c r="S114" s="36"/>
-      <c r="T114" s="36"/>
-      <c r="U114" s="36"/>
-      <c r="V114" s="36"/>
-      <c r="W114" s="36"/>
-      <c r="X114" s="36"/>
-      <c r="Y114" s="36"/>
-      <c r="Z114" s="36"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="14"/>
-      <c r="B115" s="33" t="s">
+      <c r="C116" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="11"/>
+      <c r="B117" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C115" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="35"/>
-      <c r="F115" s="36"/>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="36"/>
-      <c r="J115" s="36"/>
-      <c r="K115" s="36"/>
-      <c r="L115" s="36"/>
-      <c r="M115" s="36"/>
-      <c r="N115" s="36"/>
-      <c r="O115" s="36"/>
-      <c r="P115" s="36"/>
-      <c r="Q115" s="36"/>
-      <c r="R115" s="36"/>
-      <c r="S115" s="36"/>
-      <c r="T115" s="36"/>
-      <c r="U115" s="36"/>
-      <c r="V115" s="36"/>
-      <c r="W115" s="36"/>
-      <c r="X115" s="36"/>
-      <c r="Y115" s="36"/>
-      <c r="Z115" s="36"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="14"/>
-      <c r="B116" s="33" t="s">
+      <c r="C117" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="5"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="11"/>
+      <c r="B118" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C116" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D116" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" s="35"/>
-      <c r="F116" s="36"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="36"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="36"/>
-      <c r="L116" s="36"/>
-      <c r="M116" s="36"/>
-      <c r="N116" s="36"/>
-      <c r="O116" s="36"/>
-      <c r="P116" s="36"/>
-      <c r="Q116" s="36"/>
-      <c r="R116" s="36"/>
-      <c r="S116" s="36"/>
-      <c r="T116" s="36"/>
-      <c r="U116" s="36"/>
-      <c r="V116" s="36"/>
-      <c r="W116" s="36"/>
-      <c r="X116" s="36"/>
-      <c r="Y116" s="36"/>
-      <c r="Z116" s="36"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="14"/>
-      <c r="B117" s="33" t="s">
+      <c r="C118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="5"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="11"/>
+      <c r="B119" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C117" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D117" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="35"/>
-      <c r="F117" s="36"/>
-      <c r="G117" s="36"/>
-      <c r="H117" s="36"/>
-      <c r="I117" s="36"/>
-      <c r="J117" s="36"/>
-      <c r="K117" s="36"/>
-      <c r="L117" s="36"/>
-      <c r="M117" s="36"/>
-      <c r="N117" s="36"/>
-      <c r="O117" s="36"/>
-      <c r="P117" s="36"/>
-      <c r="Q117" s="36"/>
-      <c r="R117" s="36"/>
-      <c r="S117" s="36"/>
-      <c r="T117" s="36"/>
-      <c r="U117" s="36"/>
-      <c r="V117" s="36"/>
-      <c r="W117" s="36"/>
-      <c r="X117" s="36"/>
-      <c r="Y117" s="36"/>
-      <c r="Z117" s="36"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="14"/>
-      <c r="B118" s="22" t="s">
+      <c r="C119" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="12"/>
+      <c r="B120" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E118" s="5"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="14"/>
-      <c r="B119" s="22" t="s">
+      <c r="C120" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" s="5"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="14"/>
-      <c r="B120" s="22" t="s">
+      <c r="B121" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E120" s="5"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="14"/>
-      <c r="B121" s="22" t="s">
+      <c r="C121" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="12"/>
+      <c r="B122" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" s="5"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="23"/>
-      <c r="B122" s="22" t="s">
+      <c r="C122" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="5"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="5"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="31" t="s">
+      <c r="B123" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="5"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="6"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="5"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B123" s="22" t="s">
+      <c r="B125" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123" s="5"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="14"/>
-      <c r="B124" s="22" t="s">
+      <c r="C125" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="5"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="11"/>
+      <c r="B126" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="5"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="14"/>
-      <c r="B125" s="22" t="s">
+      <c r="C126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="5"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="11"/>
+      <c r="B127" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" s="5"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="14"/>
-      <c r="B126" s="22" t="s">
+      <c r="C127" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="21"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="22"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="22"/>
+      <c r="N127" s="22"/>
+      <c r="O127" s="22"/>
+      <c r="P127" s="22"/>
+      <c r="Q127" s="22"/>
+      <c r="R127" s="22"/>
+      <c r="S127" s="22"/>
+      <c r="T127" s="22"/>
+      <c r="U127" s="22"/>
+      <c r="V127" s="22"/>
+      <c r="W127" s="22"/>
+      <c r="X127" s="22"/>
+      <c r="Y127" s="22"/>
+      <c r="Z127" s="22"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="11"/>
+      <c r="B128" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" s="5"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="14"/>
-      <c r="B127" s="28" t="s">
+      <c r="C128" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="11"/>
+      <c r="B129" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" s="5"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="14"/>
-      <c r="B128" s="28" t="s">
+      <c r="C129" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="12"/>
+      <c r="B130" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E128" s="5"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="14"/>
-      <c r="B129" s="28" t="s">
+      <c r="C130" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D129" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" s="5"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="14"/>
-      <c r="B130" s="28" t="s">
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E130" s="5"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="14"/>
-      <c r="B131" s="28" t="s">
+      <c r="B132" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E131" s="5"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="14"/>
-      <c r="B132" s="28" t="s">
+      <c r="C132" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="29"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="30"/>
+      <c r="J132" s="30"/>
+      <c r="K132" s="30"/>
+      <c r="L132" s="30"/>
+      <c r="M132" s="30"/>
+      <c r="N132" s="30"/>
+      <c r="O132" s="30"/>
+      <c r="P132" s="30"/>
+      <c r="Q132" s="30"/>
+      <c r="R132" s="30"/>
+      <c r="S132" s="30"/>
+      <c r="T132" s="30"/>
+      <c r="U132" s="30"/>
+      <c r="V132" s="30"/>
+      <c r="W132" s="30"/>
+      <c r="X132" s="30"/>
+      <c r="Y132" s="30"/>
+      <c r="Z132" s="30"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="11"/>
+      <c r="B133" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" s="38" t="s">
+      <c r="C133" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="29"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="30"/>
+      <c r="K133" s="30"/>
+      <c r="L133" s="30"/>
+      <c r="M133" s="30"/>
+      <c r="N133" s="30"/>
+      <c r="O133" s="30"/>
+      <c r="P133" s="30"/>
+      <c r="Q133" s="30"/>
+      <c r="R133" s="30"/>
+      <c r="S133" s="30"/>
+      <c r="T133" s="30"/>
+      <c r="U133" s="30"/>
+      <c r="V133" s="30"/>
+      <c r="W133" s="30"/>
+      <c r="X133" s="30"/>
+      <c r="Y133" s="30"/>
+      <c r="Z133" s="30"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="11"/>
+      <c r="B134" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E132" s="5"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="14"/>
-      <c r="B133" s="28" t="s">
+      <c r="C134" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133" s="5"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="14"/>
-      <c r="B134" s="28" t="s">
+      <c r="E134" s="29"/>
+      <c r="F134" s="30"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="30"/>
+      <c r="I134" s="30"/>
+      <c r="J134" s="30"/>
+      <c r="K134" s="30"/>
+      <c r="L134" s="30"/>
+      <c r="M134" s="30"/>
+      <c r="N134" s="30"/>
+      <c r="O134" s="30"/>
+      <c r="P134" s="30"/>
+      <c r="Q134" s="30"/>
+      <c r="R134" s="30"/>
+      <c r="S134" s="30"/>
+      <c r="T134" s="30"/>
+      <c r="U134" s="30"/>
+      <c r="V134" s="30"/>
+      <c r="W134" s="30"/>
+      <c r="X134" s="30"/>
+      <c r="Y134" s="30"/>
+      <c r="Z134" s="30"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="11"/>
+      <c r="B135" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E134" s="5"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="14"/>
-      <c r="B135" s="28" t="s">
+      <c r="C135" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="34"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="30"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="30"/>
+      <c r="K135" s="30"/>
+      <c r="L135" s="30"/>
+      <c r="M135" s="30"/>
+      <c r="N135" s="30"/>
+      <c r="O135" s="30"/>
+      <c r="P135" s="30"/>
+      <c r="Q135" s="30"/>
+      <c r="R135" s="30"/>
+      <c r="S135" s="30"/>
+      <c r="T135" s="30"/>
+      <c r="U135" s="30"/>
+      <c r="V135" s="30"/>
+      <c r="W135" s="30"/>
+      <c r="X135" s="30"/>
+      <c r="Y135" s="30"/>
+      <c r="Z135" s="30"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="11"/>
+      <c r="B136" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D135" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E135" s="5"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="14"/>
-      <c r="B136" s="28" t="s">
+      <c r="C136" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="29"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="30"/>
+      <c r="I136" s="30"/>
+      <c r="J136" s="30"/>
+      <c r="K136" s="30"/>
+      <c r="L136" s="30"/>
+      <c r="M136" s="30"/>
+      <c r="N136" s="30"/>
+      <c r="O136" s="30"/>
+      <c r="P136" s="30"/>
+      <c r="Q136" s="30"/>
+      <c r="R136" s="30"/>
+      <c r="S136" s="30"/>
+      <c r="T136" s="30"/>
+      <c r="U136" s="30"/>
+      <c r="V136" s="30"/>
+      <c r="W136" s="30"/>
+      <c r="X136" s="30"/>
+      <c r="Y136" s="30"/>
+      <c r="Z136" s="30"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="11"/>
+      <c r="B137" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E136" s="5"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="23"/>
-      <c r="B137" s="28" t="s">
+      <c r="C137" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="29"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="30"/>
+      <c r="M137" s="30"/>
+      <c r="N137" s="30"/>
+      <c r="O137" s="30"/>
+      <c r="P137" s="30"/>
+      <c r="Q137" s="30"/>
+      <c r="R137" s="30"/>
+      <c r="S137" s="30"/>
+      <c r="T137" s="30"/>
+      <c r="U137" s="30"/>
+      <c r="V137" s="30"/>
+      <c r="W137" s="30"/>
+      <c r="X137" s="30"/>
+      <c r="Y137" s="30"/>
+      <c r="Z137" s="30"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="11"/>
+      <c r="B138" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D137" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E137" s="5"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="26" t="s">
+      <c r="C138" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="B138" s="28" t="s">
+      <c r="F138" s="30"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="30"/>
+      <c r="J138" s="30"/>
+      <c r="K138" s="30"/>
+      <c r="L138" s="30"/>
+      <c r="M138" s="30"/>
+      <c r="N138" s="30"/>
+      <c r="O138" s="30"/>
+      <c r="P138" s="30"/>
+      <c r="Q138" s="30"/>
+      <c r="R138" s="30"/>
+      <c r="S138" s="30"/>
+      <c r="T138" s="30"/>
+      <c r="U138" s="30"/>
+      <c r="V138" s="30"/>
+      <c r="W138" s="30"/>
+      <c r="X138" s="30"/>
+      <c r="Y138" s="30"/>
+      <c r="Z138" s="30"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="11"/>
+      <c r="B139" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D138" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E138" s="5"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="23"/>
-      <c r="B139" s="28" t="s">
+      <c r="C139" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D139" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E139" s="5"/>
+      <c r="F139" s="30"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="30"/>
+      <c r="J139" s="30"/>
+      <c r="K139" s="30"/>
+      <c r="L139" s="30"/>
+      <c r="M139" s="30"/>
+      <c r="N139" s="30"/>
+      <c r="O139" s="30"/>
+      <c r="P139" s="30"/>
+      <c r="Q139" s="30"/>
+      <c r="R139" s="30"/>
+      <c r="S139" s="30"/>
+      <c r="T139" s="30"/>
+      <c r="U139" s="30"/>
+      <c r="V139" s="30"/>
+      <c r="W139" s="30"/>
+      <c r="X139" s="30"/>
+      <c r="Y139" s="30"/>
+      <c r="Z139" s="30"/>
     </row>
     <row r="140">
-      <c r="A140" s="39" t="s">
+      <c r="A140" s="11"/>
+      <c r="B140" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="B140" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D140" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140" s="5"/>
+      <c r="C140" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="30"/>
+      <c r="I140" s="30"/>
+      <c r="J140" s="30"/>
+      <c r="K140" s="30"/>
+      <c r="L140" s="30"/>
+      <c r="M140" s="30"/>
+      <c r="N140" s="30"/>
+      <c r="O140" s="30"/>
+      <c r="P140" s="30"/>
+      <c r="Q140" s="30"/>
+      <c r="R140" s="30"/>
+      <c r="S140" s="30"/>
+      <c r="T140" s="30"/>
+      <c r="U140" s="30"/>
+      <c r="V140" s="30"/>
+      <c r="W140" s="30"/>
+      <c r="X140" s="30"/>
+      <c r="Y140" s="30"/>
+      <c r="Z140" s="30"/>
     </row>
     <row r="141">
-      <c r="A141" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="8"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="4"/>
       <c r="E141" s="5"/>
     </row>
     <row r="142">
-      <c r="A142" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B142" s="22" t="s">
+      <c r="A142" s="11"/>
+      <c r="B142" s="10" t="s">
         <v>167</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E142" s="5"/>
     </row>
     <row r="143">
-      <c r="A143" s="14"/>
-      <c r="B143" s="22" t="s">
+      <c r="A143" s="11"/>
+      <c r="B143" s="10" t="s">
         <v>168</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E143" s="5"/>
     </row>
     <row r="144">
-      <c r="A144" s="14"/>
-      <c r="B144" s="22" t="s">
+      <c r="A144" s="11"/>
+      <c r="B144" s="10" t="s">
         <v>169</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E144" s="5"/>
     </row>
     <row r="145">
-      <c r="A145" s="14"/>
-      <c r="B145" s="22" t="s">
+      <c r="A145" s="11"/>
+      <c r="B145" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E145" s="5"/>
     </row>
     <row r="146">
-      <c r="A146" s="14"/>
-      <c r="B146" s="22" t="s">
+      <c r="A146" s="12"/>
+      <c r="B146" s="10" t="s">
         <v>171</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E146" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="E146" s="38" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" s="23"/>
-      <c r="B147" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
       <c r="E147" s="5"/>
     </row>
     <row r="148">
-      <c r="A148" s="31" t="s">
+      <c r="A148" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="B148" s="22" t="s">
+      <c r="B148" s="10" t="s">
         <v>174</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E148" s="5"/>
     </row>
     <row r="149">
-      <c r="A149" s="23"/>
-      <c r="B149" s="22" t="s">
+      <c r="A149" s="11"/>
+      <c r="B149" s="10" t="s">
         <v>175</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E149" s="5"/>
     </row>
     <row r="150">
-      <c r="A150" s="31" t="s">
+      <c r="A150" s="11"/>
+      <c r="B150" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B150" s="22" t="s">
+      <c r="C150" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E150" s="5"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="11"/>
+      <c r="B151" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E150" s="5"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="23"/>
-      <c r="B151" s="22" t="s">
+      <c r="C151" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E151" s="5"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="11"/>
+      <c r="B152" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E151" s="5"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="31" t="s">
+      <c r="C152" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E152" s="5"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="12"/>
+      <c r="B153" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B152" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E152" s="5"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="23"/>
-      <c r="B153" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="C153" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E153" s="5"/>
     </row>
     <row r="154">
-      <c r="A154" s="31" t="s">
+      <c r="A154" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B154" s="22" t="s">
+      <c r="B154" s="10" t="s">
         <v>181</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E154" s="5"/>
     </row>
     <row r="155">
-      <c r="A155" s="23"/>
-      <c r="B155" s="22" t="s">
+      <c r="A155" s="12"/>
+      <c r="B155" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E155" s="5"/>
     </row>
     <row r="156">
-      <c r="A156" s="25" t="s">
+      <c r="A156" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="8"/>
+      <c r="B156" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E156" s="5"/>
     </row>
     <row r="157">
-      <c r="A157" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B157" s="22" t="s">
+      <c r="A157" s="12"/>
+      <c r="B157" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E157" s="5"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B158" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D157" s="30"/>
-      <c r="E157" s="5"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="14"/>
-      <c r="B158" s="22" t="s">
+      <c r="C158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E158" s="5"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="12"/>
+      <c r="B159" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" s="30"/>
-      <c r="E158" s="5"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="14"/>
-      <c r="B159" s="22" t="s">
-        <v>186</v>
-      </c>
       <c r="C159" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D159" s="30"/>
+        <v>7</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E159" s="5"/>
     </row>
     <row r="160">
-      <c r="A160" s="14"/>
-      <c r="B160" s="22" t="s">
+      <c r="A160" s="17" t="s">
         <v>187</v>
       </c>
+      <c r="B160" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="C160" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D160" s="30"/>
+        <v>7</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E160" s="5"/>
     </row>
     <row r="161">
-      <c r="A161" s="14"/>
-      <c r="B161" s="22" t="s">
-        <v>188</v>
+      <c r="A161" s="12"/>
+      <c r="B161" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D161" s="30"/>
+        <v>7</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E161" s="5"/>
     </row>
     <row r="162">
-      <c r="A162" s="23"/>
-      <c r="B162" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D162" s="30"/>
+      <c r="A162" s="6"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="8"/>
       <c r="E162" s="5"/>
     </row>
     <row r="163">
-      <c r="A163" s="25" t="s">
+      <c r="A163" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B163" s="7"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="8"/>
+      <c r="B163" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E163" s="5"/>
     </row>
     <row r="164">
-      <c r="A164" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="B164" s="22" t="s">
-        <v>191</v>
+      <c r="A164" s="11"/>
+      <c r="B164" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E164" s="5"/>
     </row>
     <row r="165">
-      <c r="A165" s="14"/>
-      <c r="B165" s="22" t="s">
-        <v>192</v>
+      <c r="A165" s="11"/>
+      <c r="B165" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E165" s="5"/>
     </row>
     <row r="166">
-      <c r="A166" s="14"/>
-      <c r="B166" s="22" t="s">
-        <v>193</v>
+      <c r="A166" s="11"/>
+      <c r="B166" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E166" s="5"/>
     </row>
     <row r="167">
-      <c r="A167" s="14"/>
-      <c r="B167" s="22" t="s">
-        <v>194</v>
+      <c r="A167" s="11"/>
+      <c r="B167" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E167" s="5"/>
     </row>
     <row r="168">
-      <c r="A168" s="14"/>
-      <c r="B168" s="22" t="s">
-        <v>195</v>
+      <c r="A168" s="11"/>
+      <c r="B168" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E168" s="5"/>
     </row>
     <row r="169">
-      <c r="A169" s="14"/>
-      <c r="B169" s="22" t="s">
-        <v>196</v>
+      <c r="A169" s="11"/>
+      <c r="B169" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E169" s="5"/>
     </row>
     <row r="170">
-      <c r="A170" s="14"/>
-      <c r="B170" s="22" t="s">
-        <v>197</v>
+      <c r="A170" s="11"/>
+      <c r="B170" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E170" s="5"/>
     </row>
     <row r="171">
-      <c r="A171" s="14"/>
-      <c r="B171" s="22" t="s">
-        <v>198</v>
+      <c r="A171" s="11"/>
+      <c r="B171" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E171" s="5"/>
     </row>
     <row r="172">
-      <c r="A172" s="14"/>
-      <c r="B172" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A172" s="6"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="8"/>
       <c r="E172" s="5"/>
     </row>
     <row r="173">
-      <c r="A173" s="25" t="s">
+      <c r="A173" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B173" s="7"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="8"/>
+      <c r="B173" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E173" s="5"/>
     </row>
     <row r="174">
-      <c r="A174" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B174" s="22" t="s">
-        <v>201</v>
+      <c r="A174" s="11"/>
+      <c r="B174" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E174" s="5"/>
     </row>
     <row r="175">
-      <c r="A175" s="14"/>
-      <c r="B175" s="22" t="s">
-        <v>202</v>
+      <c r="A175" s="11"/>
+      <c r="B175" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E175" s="5"/>
     </row>
     <row r="176">
-      <c r="A176" s="14"/>
-      <c r="B176" s="22" t="s">
-        <v>203</v>
+      <c r="A176" s="11"/>
+      <c r="B176" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E176" s="5"/>
     </row>
     <row r="177">
-      <c r="A177" s="14"/>
-      <c r="B177" s="22" t="s">
-        <v>204</v>
+      <c r="A177" s="11"/>
+      <c r="B177" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E177" s="5"/>
     </row>
     <row r="178">
-      <c r="A178" s="14"/>
-      <c r="B178" s="22" t="s">
-        <v>205</v>
+      <c r="A178" s="11"/>
+      <c r="B178" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E178" s="5"/>
     </row>
     <row r="179">
-      <c r="A179" s="14"/>
-      <c r="B179" s="22" t="s">
-        <v>206</v>
+      <c r="A179" s="11"/>
+      <c r="B179" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E179" s="5"/>
     </row>
     <row r="180">
-      <c r="A180" s="14"/>
-      <c r="B180" s="22" t="s">
-        <v>207</v>
+      <c r="A180" s="11"/>
+      <c r="B180" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E180" s="5"/>
     </row>
     <row r="181">
-      <c r="A181" s="14"/>
-      <c r="B181" s="22" t="s">
-        <v>208</v>
+      <c r="A181" s="11"/>
+      <c r="B181" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E181" s="5"/>
     </row>
     <row r="182">
-      <c r="A182" s="14"/>
-      <c r="B182" s="22" t="s">
-        <v>209</v>
+      <c r="A182" s="11"/>
+      <c r="B182" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D182" s="16"/>
       <c r="E182" s="5"/>
     </row>
     <row r="183">
-      <c r="A183" s="14"/>
-      <c r="B183" s="22" t="s">
-        <v>210</v>
+      <c r="A183" s="11"/>
+      <c r="B183" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D183" s="30"/>
+        <v>7</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E183" s="5"/>
     </row>
     <row r="184">
-      <c r="A184" s="14"/>
-      <c r="B184" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A184" s="6"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="8"/>
       <c r="E184" s="5"/>
     </row>
     <row r="185">
-      <c r="A185" s="25" t="s">
+      <c r="A185" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="8"/>
+      <c r="B185" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E185" s="5"/>
     </row>
     <row r="186">
-      <c r="A186" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="B186" s="22" t="s">
-        <v>213</v>
+      <c r="A186" s="11"/>
+      <c r="B186" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E186" s="5"/>
     </row>
     <row r="187">
-      <c r="A187" s="14"/>
-      <c r="B187" s="22" t="s">
-        <v>214</v>
+      <c r="A187" s="12"/>
+      <c r="B187" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E187" s="5"/>
     </row>
     <row r="188">
-      <c r="A188" s="23"/>
-      <c r="B188" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A188" s="6"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="8"/>
       <c r="E188" s="5"/>
     </row>
     <row r="189">
-      <c r="A189" s="25" t="s">
+      <c r="A189" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B189" s="7"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="8"/>
+      <c r="B189" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E189" s="5"/>
     </row>
     <row r="190">
-      <c r="A190" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="B190" s="22" t="s">
+      <c r="A190" s="11"/>
+      <c r="B190" s="10" t="s">
         <v>218</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E190" s="5"/>
     </row>
     <row r="191">
-      <c r="A191" s="14"/>
-      <c r="B191" s="22" t="s">
+      <c r="A191" s="11"/>
+      <c r="B191" s="10" t="s">
         <v>219</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E191" s="5"/>
     </row>
     <row r="192">
-      <c r="A192" s="14"/>
-      <c r="B192" s="22" t="s">
+      <c r="A192" s="11"/>
+      <c r="B192" s="10" t="s">
         <v>220</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E192" s="5"/>
     </row>
     <row r="193">
-      <c r="A193" s="14"/>
-      <c r="B193" s="22" t="s">
+      <c r="A193" s="11"/>
+      <c r="B193" s="10" t="s">
         <v>221</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E193" s="5"/>
     </row>
     <row r="194">
-      <c r="A194" s="14"/>
-      <c r="B194" s="22" t="s">
+      <c r="A194" s="11"/>
+      <c r="B194" s="10" t="s">
         <v>222</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E194" s="5"/>
     </row>
     <row r="195">
-      <c r="A195" s="14"/>
-      <c r="B195" s="22" t="s">
+      <c r="A195" s="12"/>
+      <c r="B195" s="10" t="s">
         <v>223</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E195" s="5"/>
     </row>
     <row r="196">
-      <c r="A196" s="23"/>
-      <c r="B196" s="22" t="s">
+      <c r="A196" s="6"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="5"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C196" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E196" s="5"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="25" t="s">
+      <c r="B197" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B197" s="7"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="8"/>
+      <c r="C197" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E197" s="5"/>
     </row>
     <row r="198">
-      <c r="A198" s="26" t="s">
+      <c r="A198" s="11"/>
+      <c r="B198" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B198" s="22" t="s">
+      <c r="C198" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E198" s="5"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="11"/>
+      <c r="B199" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C198" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E198" s="5"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="14"/>
-      <c r="B199" s="22" t="s">
+      <c r="C199" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E199" s="5"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="11"/>
+      <c r="B200" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C199" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="5"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="14"/>
-      <c r="B200" s="22" t="s">
+      <c r="C200" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E200" s="5"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="11"/>
+      <c r="B201" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C200" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="5"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="14"/>
-      <c r="B201" s="22" t="s">
+      <c r="C201" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E201" s="5"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="12"/>
+      <c r="B202" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C201" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E201" s="5"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="14"/>
-      <c r="B202" s="22" t="s">
+      <c r="C202" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" s="5"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C202" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E202" s="5"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="23"/>
-      <c r="B203" s="22" t="s">
+      <c r="B203" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E203" s="5"/>
     </row>
     <row r="204">
-      <c r="A204" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B204" s="22" t="s">
+      <c r="A204" s="11"/>
+      <c r="B204" s="10" t="s">
         <v>233</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E204" s="5"/>
     </row>
     <row r="205">
-      <c r="A205" s="14"/>
-      <c r="B205" s="22" t="s">
+      <c r="A205" s="11"/>
+      <c r="B205" s="10" t="s">
         <v>234</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E205" s="5"/>
     </row>
     <row r="206">
-      <c r="A206" s="14"/>
-      <c r="B206" s="22" t="s">
+      <c r="A206" s="12"/>
+      <c r="B206" s="10" t="s">
         <v>235</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E206" s="5"/>
     </row>
     <row r="207">
-      <c r="A207" s="23"/>
-      <c r="B207" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
       <c r="E207" s="5"/>
     </row>
     <row r="208">
@@ -8806,53 +8785,47 @@
     <row r="1120">
       <c r="A1120" s="5"/>
       <c r="B1120" s="5"/>
+      <c r="C1120" s="4"/>
       <c r="E1120" s="5"/>
     </row>
-    <row r="1121">
-      <c r="A1121" s="5"/>
-      <c r="B1121" s="5"/>
-      <c r="C1121" s="4"/>
-      <c r="E1121" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="36">
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:A17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A39"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A82"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A87:A102"/>
-    <mergeCell ref="A103:A122"/>
-    <mergeCell ref="A123:A137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="A190:A196"/>
-    <mergeCell ref="A198:A203"/>
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="A164:A172"/>
-    <mergeCell ref="A174:A184"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A189:D189"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A85"/>
+    <mergeCell ref="A86:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A132:A146"/>
+    <mergeCell ref="A148:A153"/>
+    <mergeCell ref="A173:A183"/>
+    <mergeCell ref="A184:D184"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A189:A195"/>
+    <mergeCell ref="A196:D196"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="A203:A206"/>
     <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A157:A162"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A163:A171"/>
+    <mergeCell ref="A172:D172"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
